--- a/data/trans_camb/P40_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P40_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>-6,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,11</t>
+          <t>-6,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,26</t>
+          <t>-9,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>-7,5</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-4,78</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,57</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>-3,77</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-7,24</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-7,06</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-4,57</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 0,74</t>
+          <t>-18,72; 1,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,28; -1,55</t>
+          <t>-19,15; 0,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,88; -2,33</t>
+          <t>-22,24; -2,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 4,01</t>
+          <t>-19,91; 1,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,33; -1,84</t>
+          <t>-8,68; 6,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,38; -0,48</t>
+          <t>-14,2; -1,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 1,41</t>
+          <t>-11,2; 2,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,91; -3,07</t>
+          <t>-10,19; 3,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -3,12</t>
+          <t>-10,43; 2,17</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-13,84; -2,42</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-13,74; -2,02</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-11,56; 0,79</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-34,05%</t>
+          <t>-44,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-50,78%</t>
+          <t>-48,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-60,38%</t>
+          <t>-65,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,06%</t>
+          <t>-43,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-45,17%</t>
+          <t>-9,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-36,84%</t>
+          <t>-45,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-18,6%</t>
+          <t>-28,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-47,42%</t>
+          <t>-18,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-46,83%</t>
+          <t>-24,28%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-46,59%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-45,46%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-29,4%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-67,33; 11,52</t>
+          <t>-79,16; 20,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-79,51; -13,94</t>
+          <t>-80,65; 13,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-83,0; -16,62</t>
+          <t>-90,85; -20,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,32; 32,32</t>
+          <t>-79,77; 23,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,2; -11,09</t>
+          <t>-42,69; 54,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,29; -2,85</t>
+          <t>-68,74; -8,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,27; 13,08</t>
+          <t>-56,21; 20,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,51; -24,42</t>
+          <t>-49,59; 30,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-63,86; -25,75</t>
+          <t>-51,09; 18,23</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-67,39; -14,46</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-67,35; -12,71</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-57,07; 7,8</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,66</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,35</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-7,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,77</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-6,85</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,53</t>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-3,88</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,79</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-6,86</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 13,8</t>
+          <t>-12,0; 10,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 1,2</t>
+          <t>-12,53; 9,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 1,97</t>
+          <t>-12,53; 8,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 6,59</t>
+          <t>-18,33; 1,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 0,24</t>
+          <t>-7,55; 12,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 4,57</t>
+          <t>-13,16; 5,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 6,84</t>
+          <t>-10,25; 8,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,55; -1,94</t>
+          <t>-14,55; 2,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 0,87</t>
+          <t>-7,19; 7,29</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-11,26; 3,08</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-8,91; 5,35</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-13,8; -0,41</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>-9,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-35,64%</t>
+          <t>-15,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-28,66%</t>
+          <t>-12,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,17%</t>
+          <t>-45,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-28,88%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,47%</t>
+          <t>-21,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>-5,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-32,25%</t>
+          <t>-26,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-21,31%</t>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-19,76%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-9,12%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-34,95%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 86,19</t>
+          <t>-55,68; 94,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-64,41; 10,57</t>
+          <t>-61,05; 83,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,36; 17,1</t>
+          <t>-61,65; 69,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,08; 34,52</t>
+          <t>-79,63; 23,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-51,56; 1,89</t>
+          <t>-30,1; 73,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,49; 24,76</t>
+          <t>-51,98; 27,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 37,44</t>
+          <t>-39,45; 51,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,35; -9,09</t>
+          <t>-54,75; 17,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,88; 5,16</t>
+          <t>-31,82; 44,07</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-48,29; 21,86</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-38,94; 35,58</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-57,71; -0,53</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-17,37</t>
+          <t>-32,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-19,46</t>
+          <t>-32,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>-32,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,17</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,72</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-11,41</t>
+          <t>-7,23</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-13,45</t>
+          <t>3,76</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-16,08</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-17,96</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-20,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 26,38</t>
+          <t>-38,93; 45,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-46,24; -4,52</t>
+          <t>-66,54; -7,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-44,34; -6,91</t>
+          <t>-73,36; -8,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 16,28</t>
+          <t>-66,54; -7,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 9,49</t>
+          <t>-14,58; 24,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 6,98</t>
+          <t>-19,91; 18,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 15,53</t>
+          <t>-21,72; 17,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-27,25; -1,89</t>
+          <t>-26,06; 12,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-27,77; -4,06</t>
+          <t>-21,69; 28,06</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-40,42; -1,58</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-42,09; -3,89</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-44,3; -5,53</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-82,85%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-92,82%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-19,2%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,94%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>-13,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-47,97%</t>
+          <t>-30,1%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-56,56%</t>
+          <t>13,28%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-56,76%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-63,4%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-71,4%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-82,86; 259,08</t>
+          <t>-92,93; 516,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -31,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -43,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,78; 84,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,11; 51,42</t>
+          <t>-46,84; 193,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-61,11; 42,99</t>
+          <t>-60,83; 134,8</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-49,32; 83,92</t>
+          <t>-63,91; 130,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-77,53; -8,98</t>
+          <t>-81,46; 99,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-81,59; -19,78</t>
+          <t>-61,42; 168,5</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-88,32; -4,04</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-89,11; -17,2</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-94,94; -23,64</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,59</t>
+          <t>-7,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,92</t>
+          <t>-8,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-9,76</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,71</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-7,17</t>
+          <t>-4,58</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,44</t>
+          <t>-1,36</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-6,76</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-6,02</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-7,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 5,6</t>
+          <t>-11,4; 6,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,61; -3,12</t>
+          <t>-16,8; -1,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,32; -3,47</t>
+          <t>-17,97; -2,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 3,62</t>
+          <t>-18,32; -3,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,03; -2,87</t>
+          <t>-5,26; 6,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,23; -0,46</t>
+          <t>-10,67; -0,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 3,12</t>
+          <t>-8,52; 1,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,27; -3,79</t>
+          <t>-9,81; 0,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,79; -3,32</t>
+          <t>-7,04; 3,29</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-11,62; -2,56</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-10,81; -1,74</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-12,15; -2,83</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>-18,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-48,19%</t>
+          <t>-45,65%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-50,29%</t>
+          <t>-51,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>-56,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-33,98%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-24,58%</t>
+          <t>-29,01%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,24%</t>
+          <t>-15,9%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-40,12%</t>
+          <t>-23,49%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-36,04%</t>
+          <t>-7,35%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-36,54%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-32,51%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-38,58%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 44,18</t>
+          <t>-52,38; 51,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-68,28; -22,92</t>
+          <t>-70,12; -5,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-69,26; -22,82</t>
+          <t>-74,27; -11,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 20,89</t>
+          <t>-77,25; -22,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-49,93; -15,56</t>
+          <t>-23,68; 37,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,4; -2,29</t>
+          <t>-47,6; -4,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 18,9</t>
+          <t>-38,22; 11,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-52,49; -23,67</t>
+          <t>-44,58; 4,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-49,41; -19,83</t>
+          <t>-32,63; 20,45</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-53,67; -15,86</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-50,12; -9,27</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-54,47; -17,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
